--- a/04.테스트/통합테스트 시나리오 명세서-선의.xlsx
+++ b/04.테스트/통합테스트 시나리오 명세서-선의.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t xml:space="preserve">관심을 준 구직자의 리스트를 더블클릭하면 해당 구직자의 상세정보를 볼 수 있다. 외부이력서를 다운받을 수 있으며 이 구직자에 대해 나의 관심(하트)를 줄수도 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오영ㄱㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1608,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1673,7 +1677,9 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
     </row>
